--- a/biology/Médecine/1118_en_santé_et_médecine/1118_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1118_en_santé_et_médecine/1118_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1118_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1118_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1118 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1118_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1118_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hellin, abbé de Notre-Dame-aux-Fonts, fait reconstruire ou agrandir l'hôpital épiscopal de Liège, qui aura disparu dès 1203[1].
-Fondation du grand hôtel-Dieu de Meaux, capitale de la Brie[2].
-Vers 1115-1118 : Gaston le Croisé, seigneur de Béarn, fait construire à Aubertin et place sous le contrôle du prieuré de Sainte-Christine du Somport un hôpital de pèlerins qui n'ouvrira qu'en 1128[3].
-1117-1118 : Mathilde d'Écosse, femme du roi d'Angleterre Henri Ier, fonde à Londres l'hôpital pour lépreux de St. Giles-in-the-Fields[4].
-1118-1128 : la donation d'une citerne « à l'usage des pauvres » par Gormond de Picquigny, patriarche de Jérusalem, confirmée en 1130 par son successeur Guillaume de Messines, peut être tenue pour fondatrice d'une « maison des lépreux », premier établissement de ce qui deviendra l'ordre hospitalier de Saint-Lazare[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hellin, abbé de Notre-Dame-aux-Fonts, fait reconstruire ou agrandir l'hôpital épiscopal de Liège, qui aura disparu dès 1203.
+Fondation du grand hôtel-Dieu de Meaux, capitale de la Brie.
+Vers 1115-1118 : Gaston le Croisé, seigneur de Béarn, fait construire à Aubertin et place sous le contrôle du prieuré de Sainte-Christine du Somport un hôpital de pèlerins qui n'ouvrira qu'en 1128.
+1117-1118 : Mathilde d'Écosse, femme du roi d'Angleterre Henri Ier, fonde à Londres l'hôpital pour lépreux de St. Giles-in-the-Fields.
+1118-1128 : la donation d'une citerne « à l'usage des pauvres » par Gormond de Picquigny, patriarche de Jérusalem, confirmée en 1130 par son successeur Guillaume de Messines, peut être tenue pour fondatrice d'une « maison des lépreux », premier établissement de ce qui deviendra l'ordre hospitalier de Saint-Lazare.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1118_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1118_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Thomas Falyn, « docteur en médecine à Paris, grand astrologien [qui] prédit le terre motus qui fut l'an 1118 », selon Simon de Phares, mais que Jean-Patrice Boudet qualifie de personnage « imaginaire[6] ».
-1117-1118 : fl. Laurent, « signataire d'une charte de Saint-Nicolas d'Angers », serviteur d'un médecin nommé Jean (« famulus Joannis medici »), mais que Dubreuil-Chambardel présente, à tort selon Wickersheimer, comme étant le disciple de ce médecin[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Thomas Falyn, « docteur en médecine à Paris, grand astrologien [qui] prédit le terre motus qui fut l'an 1118 », selon Simon de Phares, mais que Jean-Patrice Boudet qualifie de personnage « imaginaire ».
+1117-1118 : fl. Laurent, « signataire d'une charte de Saint-Nicolas d'Angers », serviteur d'un médecin nommé Jean (« famulus Joannis medici »), mais que Dubreuil-Chambardel présente, à tort selon Wickersheimer, comme étant le disciple de ce médecin.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1118_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1118_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1118, 1110 ou 1120 : Mkhitar de Her (mort en  1200), médecin, chirurgien, physiologiste et astronome arménien, auteur de divers ouvrages, sur « la structure et la composition des yeux », sur « le scrotum » ou sur « les pierres et leurs propriétés », et qui « peut être considéré comme le chef de file de l'école médicale arménienne du XIIe siècle[8],[9] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1118, 1110 ou 1120 : Mkhitar de Her (mort en  1200), médecin, chirurgien, physiologiste et astronome arménien, auteur de divers ouvrages, sur « la structure et la composition des yeux », sur « le scrotum » ou sur « les pierres et leurs propriétés », et qui « peut être considéré comme le chef de file de l'école médicale arménienne du XIIe siècle, ».</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1118_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1118_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1118 ? : Bernard de Tiron (né vers 1046), fondateur de la congrégation de la Sainte-Trinité, canonisé par l'Église catholique et que Dubreuil-Chambardel dit avoir été formé à la médecine par Guillaume Firmat quoiqu'on n'ait aucune preuve, selon Wickersheimer, qu'il ait jamais exercé cet art[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1118 ? : Bernard de Tiron (né vers 1046), fondateur de la congrégation de la Sainte-Trinité, canonisé par l'Église catholique et que Dubreuil-Chambardel dit avoir été formé à la médecine par Guillaume Firmat quoiqu'on n'ait aucune preuve, selon Wickersheimer, qu'il ait jamais exercé cet art.
 </t>
         </is>
       </c>
